--- a/F_dataset/DUD-E/KPCB/KPCB_prepare/KPCB_inactive.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_prepare/KPCB_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T152"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7843,2106 +7843,6 @@
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>CHEMBL1080994</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(S(=O)(=O)N3CCN(C)CC3)c2)ccc2[nH]ccc12</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(S(=O)(=O)N3CCN(C)CC3)c2)ccc2[nH]ccc12</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>512.64</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6</v>
-      </c>
-      <c r="J128" t="n">
-        <v>6</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5</v>
-      </c>
-      <c r="L128" t="n">
-        <v>4</v>
-      </c>
-      <c r="M128" t="n">
-        <v>105.12</v>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q128" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>CHEMBL1114002</t>
-        </is>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>CHEMBL1929247</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>282.41</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>5</v>
-      </c>
-      <c r="K129" t="n">
-        <v>2</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q129" t="n">
-        <v>16</v>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>CHEMBL1929909</t>
-        </is>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta2 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>CHEMBL398606</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>CC(C)NCc1ccc(Nc2cc(-c3ccc(-c4ccc(O)cc4O)cc3)[nH]n2)cc1</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>CC(C)NCc1ccc(Nc2cc(-c3ccc(-c4ccc(O)cc4O)cc3)[nH]n2)cc1</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>414.51</v>
-      </c>
-      <c r="H130" t="n">
-        <v>5</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>4</v>
-      </c>
-      <c r="L130" t="n">
-        <v>4</v>
-      </c>
-      <c r="M130" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q130" t="n">
-        <v>16</v>
-      </c>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>CHEMBL898057</t>
-        </is>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta at 1 uM</t>
-        </is>
-      </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>CHEMBL183906</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)/C(=C/c2cccc(C(F)(F)F)c2)S1</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)/C(=C/c2cccc(C(F)(F)F)c2)S1</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>273.23</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="n">
-        <v>2</v>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="n">
-        <v>46.17</v>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q131" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>CHEMBL1012714</t>
-        </is>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>CHEMBL2333112</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>CC(C)Nc1c(C(N)=O)nnc2cc(-c3ccncc3)ccc12</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>CC(C)Nc1c(C(N)=O)nnc2cc(-c3ccncc3)ccc12</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>307.36</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>4</v>
-      </c>
-      <c r="K132" t="n">
-        <v>3</v>
-      </c>
-      <c r="L132" t="n">
-        <v>3</v>
-      </c>
-      <c r="M132" t="n">
-        <v>93.79000000000001</v>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q132" t="n">
-        <v>15</v>
-      </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>CHEMBL2345064</t>
-        </is>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>Inhibition of PRKCbeta1 (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>CHEMBL3719135</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2cnc(N)c(OC(F)(F)F)c2)cc1[C@H]1[C@@H]2CN(C3COC3)C[C@@H]21</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2cnc(N)c(OC(F)(F)F)c2)cc1[C@@H]1[C@H]2CN(C3COC3)C[C@H]21</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>423.44</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>6</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5</v>
-      </c>
-      <c r="K133" t="n">
-        <v>5</v>
-      </c>
-      <c r="L133" t="n">
-        <v>2</v>
-      </c>
-      <c r="M133" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q133" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>CHEMBL4120069</t>
-        </is>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta1 (unknown origin) at 1 uM by FRET assay relative to control</t>
-        </is>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>CHEMBL1644620</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>387.44</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4</v>
-      </c>
-      <c r="K134" t="n">
-        <v>5</v>
-      </c>
-      <c r="L134" t="n">
-        <v>4</v>
-      </c>
-      <c r="M134" t="n">
-        <v>84.83</v>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q134" t="n">
-        <v>11</v>
-      </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>CHEMBL1648816</t>
-        </is>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>Inhibition of PRKCB1 at 10 uM after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>CHEMBL2376158</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>C[C@@H](NC(=O)c1c[nH]c2ncc(-c3ncn4cc(F)cc(F)c34)nc12)C(=O)N1CC(C#N)C1</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>C[C@@H](NC(=O)c1c[nH]c2ncc(-c3ncn4cc(F)cc(F)c34)nc12)C(=O)N1CC(C#N)C1</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>450.41</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>6</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4</v>
-      </c>
-      <c r="K135" t="n">
-        <v>5</v>
-      </c>
-      <c r="L135" t="n">
-        <v>4</v>
-      </c>
-      <c r="M135" t="n">
-        <v>132.07</v>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q135" t="n">
-        <v>9</v>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>CHEMBL2378210</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>Inhibition of protein kinase C beta (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>CHEMBL1682017</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>O=C(Cc1cccc2cnccc12)Nc1scc(Cl)c1-c1ncn[nH]1</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>O=C(Cc1cccc2cnccc12)Nc1scc(Cl)c1-c1ncn[nH]1</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>369.84</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4</v>
-      </c>
-      <c r="K136" t="n">
-        <v>4</v>
-      </c>
-      <c r="L136" t="n">
-        <v>4</v>
-      </c>
-      <c r="M136" t="n">
-        <v>83.56</v>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q136" t="n">
-        <v>3</v>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>CHEMBL1686797</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>Inhibition of PRKCB1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>CHEMBL1516890</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>275.31</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" t="n">
-        <v>4</v>
-      </c>
-      <c r="L137" t="n">
-        <v>3</v>
-      </c>
-      <c r="M137" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q137" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>CHEMBL157258</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>383.62</v>
-      </c>
-      <c r="H138" t="n">
-        <v>3</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3</v>
-      </c>
-      <c r="K138" t="n">
-        <v>3</v>
-      </c>
-      <c r="L138" t="n">
-        <v>2</v>
-      </c>
-      <c r="M138" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q138" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>CHEMBL1794070</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>511.05</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5</v>
-      </c>
-      <c r="J139" t="n">
-        <v>7</v>
-      </c>
-      <c r="K139" t="n">
-        <v>5</v>
-      </c>
-      <c r="L139" t="n">
-        <v>4</v>
-      </c>
-      <c r="M139" t="n">
-        <v>82.61</v>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q139" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>CHEMBL185710</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>230.23</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>6</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2</v>
-      </c>
-      <c r="K140" t="n">
-        <v>3</v>
-      </c>
-      <c r="L140" t="n">
-        <v>3</v>
-      </c>
-      <c r="M140" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q140" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>CHEMBL1909380</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>6</v>
-      </c>
-      <c r="J141" t="n">
-        <v>6</v>
-      </c>
-      <c r="K141" t="n">
-        <v>5</v>
-      </c>
-      <c r="L141" t="n">
-        <v>5</v>
-      </c>
-      <c r="M141" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q141" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>CHEMBL1909396</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2oc3ncnc(N)c3c2-c2ccc(NC(=O)Nc3cc(C(F)(F)F)ccc3F)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2oc3ncnc(N)c3c2-c2ccc(NC(=O)Nc3cc(C(F)(F)F)ccc3F)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>537.47</v>
-      </c>
-      <c r="H142" t="n">
-        <v>3</v>
-      </c>
-      <c r="I142" t="n">
-        <v>6</v>
-      </c>
-      <c r="J142" t="n">
-        <v>5</v>
-      </c>
-      <c r="K142" t="n">
-        <v>5</v>
-      </c>
-      <c r="L142" t="n">
-        <v>5</v>
-      </c>
-      <c r="M142" t="n">
-        <v>115.3</v>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q142" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>CHEMBL1961911</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>CHEMBL1909403</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>431.39</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>5</v>
-      </c>
-      <c r="J143" t="n">
-        <v>6</v>
-      </c>
-      <c r="K143" t="n">
-        <v>4</v>
-      </c>
-      <c r="L143" t="n">
-        <v>4</v>
-      </c>
-      <c r="M143" t="n">
-        <v>75.34</v>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q143" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>CHEMBL202891</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>328.38</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4</v>
-      </c>
-      <c r="K144" t="n">
-        <v>4</v>
-      </c>
-      <c r="L144" t="n">
-        <v>4</v>
-      </c>
-      <c r="M144" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q144" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>CHEMBL1961911</t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>CHEMBL204934</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>COc1cccc(-n2cnc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>COc1cccc(-n2cnc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>345.37</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>6</v>
-      </c>
-      <c r="J145" t="n">
-        <v>5</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4</v>
-      </c>
-      <c r="L145" t="n">
-        <v>4</v>
-      </c>
-      <c r="M145" t="n">
-        <v>90.11</v>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q145" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>CHEMBL1961900</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>CHEMBL2062289</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>5</v>
-      </c>
-      <c r="J146" t="n">
-        <v>5</v>
-      </c>
-      <c r="K146" t="n">
-        <v>4</v>
-      </c>
-      <c r="L146" t="n">
-        <v>3</v>
-      </c>
-      <c r="M146" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q146" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>CHEMBL3330401</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>COC(C(=O)Nc1ccc2[nH]nc(-c3cccc(S(N)(=O)=O)c3)c2c1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>COC(C(=O)Nc1ccc2[nH]nc(-c3cccc(S(N)(=O)=O)c3)c2c1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>436.49</v>
-      </c>
-      <c r="H147" t="n">
-        <v>3</v>
-      </c>
-      <c r="I147" t="n">
-        <v>5</v>
-      </c>
-      <c r="J147" t="n">
-        <v>6</v>
-      </c>
-      <c r="K147" t="n">
-        <v>4</v>
-      </c>
-      <c r="L147" t="n">
-        <v>4</v>
-      </c>
-      <c r="M147" t="n">
-        <v>127.17</v>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q147" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>CHEMBL3369108</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>Inhibition of human PKCbeta1 at 1 uM by radiometric Assay</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>CHEMBL359963</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>CC(C)c1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>CC(C)c1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>330.4</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>5</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4</v>
-      </c>
-      <c r="K148" t="n">
-        <v>4</v>
-      </c>
-      <c r="L148" t="n">
-        <v>4</v>
-      </c>
-      <c r="M148" t="n">
-        <v>68</v>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q148" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>CHEMBL1961900</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>CHEMBL365663</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>338.82</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4</v>
-      </c>
-      <c r="J149" t="n">
-        <v>2</v>
-      </c>
-      <c r="K149" t="n">
-        <v>4</v>
-      </c>
-      <c r="L149" t="n">
-        <v>4</v>
-      </c>
-      <c r="M149" t="n">
-        <v>64.69</v>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q149" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>CHEMBL397570</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>300.36</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2</v>
-      </c>
-      <c r="J150" t="n">
-        <v>2</v>
-      </c>
-      <c r="K150" t="n">
-        <v>3</v>
-      </c>
-      <c r="L150" t="n">
-        <v>2</v>
-      </c>
-      <c r="M150" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>CHEMBL1961911</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>CHEMBL4278763</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>469.57</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4</v>
-      </c>
-      <c r="K151" t="n">
-        <v>6</v>
-      </c>
-      <c r="L151" t="n">
-        <v>5</v>
-      </c>
-      <c r="M151" t="n">
-        <v>116.37</v>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q151" t="n">
-        <v>2</v>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>CHEMBL4263911</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>Inhibition of PKC-BETA2 (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>CHEMBL495902</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2[nH]ncc2c1</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2[nH]ncc2c1</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>291.35</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3</v>
-      </c>
-      <c r="K152" t="n">
-        <v>4</v>
-      </c>
-      <c r="L152" t="n">
-        <v>3</v>
-      </c>
-      <c r="M152" t="n">
-        <v>57.78</v>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q152" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
